--- a/Data.xlsx
+++ b/Data.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Moral" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -42,35 +42,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -503,8 +505,8 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -568,6 +570,16 @@
           <t xml:space="preserve">Ma Dolores </t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,6 +592,16 @@
           <t xml:space="preserve">JUAN PABLO CARABES ORTIZ </t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,6 +614,16 @@
           <t>Salvador Castro</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -604,6 +636,16 @@
           <t xml:space="preserve">Salvador Corona </t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Error con la contraseña. Verifique que exista</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -616,6 +658,16 @@
           <t xml:space="preserve">GUSTAVO FRANZ </t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -628,6 +680,16 @@
           <t xml:space="preserve">Roberto Escudero </t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,6 +702,16 @@
           <t>Luis Martin Gonzalez</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No se puede acceder al aplicativo porque su E.FIRMA está revocada.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -652,6 +724,16 @@
           <t>MARCO ANTONIO GONZALEZ MORENO</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No se puede acceder al aplicativo porque su E.FIRMA no está vigente.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -664,6 +746,16 @@
           <t xml:space="preserve">Ana Karen Guerra </t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No se puede acceder al aplicativo porque su E.FIRMA no está vigente.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -676,6 +768,16 @@
           <t xml:space="preserve">Fernanda Guerra </t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Certificado, clave privada o contraseña de clave privada inválidos, inténtelo nuevamente.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -688,6 +790,16 @@
           <t>RUBEN ADRIAN GUERRERO LUNA</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Certificado, clave privada o contraseña de clave privada inválidos, inténtelo nuevamente.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -700,6 +812,16 @@
           <t>JULIO EDUARDO GUERRA ORTIZ</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Certificado, clave privada o contraseña de clave privada inválidos, inténtelo nuevamente.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -712,6 +834,16 @@
           <t>DANIEL PEREZ LETE BARBA</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -724,6 +856,16 @@
           <t xml:space="preserve">J. Guadalupe Lopez Aguilar </t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Error con la contraseña. Verifique que exista</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -736,6 +878,16 @@
           <t>NIDIA GRACIELA LOPEZ RIVERA</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No se puede acceder al aplicativo porque su E.FIRMA no está vigente.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -748,6 +900,16 @@
           <t>JORGE GUILLERMO MALACON SAINZ</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -760,6 +922,16 @@
           <t>JOHNNY FARUT VARON VIRGUEZ</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -772,6 +944,16 @@
           <t xml:space="preserve">Maria guadalupe ortiz </t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -784,6 +966,16 @@
           <t>juan orozco</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -796,6 +988,16 @@
           <t>Sabino  Javier Orozco Mora</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -808,6 +1010,16 @@
           <t>Sergio Orozco</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -820,6 +1032,16 @@
           <t xml:space="preserve">JULIO CESAR VALLE </t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -832,6 +1054,16 @@
           <t>MARIA ANGELICA PEREZ RAMOZ</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -844,6 +1076,16 @@
           <t xml:space="preserve">CINTTHIA PORTALES </t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -856,6 +1098,16 @@
           <t>VANESSA ALEJANDRA QUIÑONES GODINEZ</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -868,6 +1120,16 @@
           <t xml:space="preserve">ODON REYES </t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -880,6 +1142,16 @@
           <t>VALERIA LIZBETH RODRIGUEZ MUÑOZ</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -892,6 +1164,16 @@
           <t xml:space="preserve">Juana Leticia </t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Certificado, clave privada o contraseña de clave privada inválidos, inténtelo nuevamente.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -904,6 +1186,16 @@
           <t>ANA BELEN ZARAGOZA GONZALEZ</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -916,6 +1208,16 @@
           <t>LUIS ÁNGEL DÍAZ GARCÍA</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No se puede acceder al aplicativo porque su E.FIRMA está revocada.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -928,6 +1230,16 @@
           <t>4 ADRIAN NUÑEZ SALAZAR</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Certificado, clave privada o contraseña de clave privada inválidos, inténtelo nuevamente.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -940,6 +1252,16 @@
           <t>JESUS MAXIMILIANO MELENDEZ ESTRADA</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -952,6 +1274,16 @@
           <t xml:space="preserve">CONTABILIDAD LUX </t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -964,6 +1296,16 @@
           <t>ROBERTO TELLEZ</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -976,6 +1318,16 @@
           <t>RENE UNZUETA</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -988,6 +1340,16 @@
           <t>CLAUDIA VERONIA</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1000,9 +1362,19 @@
           <t>JOSE RAUL CORONA DE LEON</t>
         </is>
       </c>
-    </row>
-    <row r="40" ht="28.8" customHeight="1">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>GUGJ861006GE4</t>
         </is>
@@ -1012,9 +1384,19 @@
           <t>JULIO ERNESTO GUERRA GUTIERREZ DE VELASCO</t>
         </is>
       </c>
-    </row>
-    <row r="41" ht="28.8" customHeight="1">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>MIRE700619QF9</t>
         </is>
@@ -1022,6 +1404,16 @@
       <c r="B41" t="inlineStr">
         <is>
           <t>EVANJELINA MIRANDA RAMOS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
         </is>
       </c>
     </row>
@@ -1036,6 +1428,16 @@
           <t>JAIME ALBERTO PEÑA ARIAS</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Error. No se pudo descargar.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1051,17 +1453,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A43">
+    <cfRule type="duplicateValues" priority="3" dxfId="0"/>
+    <cfRule type="duplicateValues" priority="4" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:A38">
+    <cfRule type="duplicateValues" priority="5" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:A33">
+    <cfRule type="duplicateValues" priority="6" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:A38">
+    <cfRule type="duplicateValues" priority="7" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A41">
     <cfRule type="duplicateValues" priority="1" dxfId="0"/>
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A38">
-    <cfRule type="duplicateValues" priority="3" dxfId="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A33">
-    <cfRule type="duplicateValues" priority="4" dxfId="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A38">
-    <cfRule type="duplicateValues" priority="5" dxfId="0"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
